--- a/uploads/prediction/data-_pruebas.xlsx
+++ b/uploads/prediction/data-_pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wienercarrion-my.sharepoint.com/personal/daniel_herrera_uwiener_edu_pe/Documents/NW/Proyecto Predicción/MODELO/DATA estudiantes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82DB9CAC-D7D9-41DB-AA3F-D9555768FCFD}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4D2F04E46CFB4ACB3E20232DD7E4AA683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{672C69CB-84A1-4D44-A873-E5C83FE0B265}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="4275" windowWidth="14040" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,36 +840,36 @@
         <v>113</v>
       </c>
       <c r="B2" s="2">
-        <v>2024102603</v>
+        <v>2023105124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J27" si="0">MID(B2,1,5)</f>
-        <v>20241</v>
+        <f>MID(B2,1,5)</f>
+        <v>20231</v>
       </c>
       <c r="K2" s="2">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -888,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
         <v>71</v>
@@ -900,14 +900,14 @@
         <v>202503</v>
       </c>
       <c r="W2" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X2" s="3">
         <v>19</v>
       </c>
       <c r="Y2" s="4">
         <f>W2/X2</f>
-        <v>0.73684210526315785</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>33</v>
@@ -930,40 +930,40 @@
         <v>113</v>
       </c>
       <c r="B3" s="2">
-        <v>2024103037</v>
+        <v>2023102978</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B3,1,5)</f>
+        <v>20231</v>
       </c>
       <c r="K3" s="2">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>49</v>
@@ -978,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="T3" t="s">
         <v>71</v>
@@ -990,14 +990,14 @@
         <v>202503</v>
       </c>
       <c r="W3" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="X3" s="3">
         <v>19</v>
       </c>
       <c r="Y3" s="4">
-        <f t="shared" ref="Y3:Y27" si="1">W3/X3</f>
-        <v>0.73684210526315785</v>
+        <f>W3/X3</f>
+        <v>0.36842105263157893</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>33</v>
@@ -1020,40 +1020,40 @@
         <v>113</v>
       </c>
       <c r="B4" s="2">
-        <v>2024104703</v>
+        <v>2023202283</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B4,1,5)</f>
+        <v>20232</v>
       </c>
       <c r="K4" s="2">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>49</v>
@@ -1068,7 +1068,7 @@
         <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s">
         <v>71</v>
@@ -1080,14 +1080,14 @@
         <v>202503</v>
       </c>
       <c r="W4" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" s="3">
         <v>19</v>
       </c>
       <c r="Y4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63157894736842102</v>
+        <f>W4/X4</f>
+        <v>0.57894736842105265</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>33</v>
@@ -1110,10 +1110,10 @@
         <v>113</v>
       </c>
       <c r="B5" s="2">
-        <v>2024106697</v>
+        <v>2023200597</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>54</v>
@@ -1122,24 +1122,24 @@
         <v>54</v>
       </c>
       <c r="F5" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B5,1,5)</f>
+        <v>20232</v>
       </c>
       <c r="K5" s="2">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
@@ -1158,10 +1158,10 @@
         <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>70</v>
@@ -1170,20 +1170,20 @@
         <v>202503</v>
       </c>
       <c r="W5" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X5" s="3">
         <v>19</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.36842105263157893</v>
+        <f>W5/X5</f>
+        <v>0.63157894736842102</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>33</v>
@@ -1200,40 +1200,40 @@
         <v>113</v>
       </c>
       <c r="B6" s="2">
-        <v>2025100442</v>
+        <v>2023200706</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20251</v>
+        <f>MID(B6,1,5)</f>
+        <v>20232</v>
       </c>
       <c r="K6" s="2">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>49</v>
@@ -1248,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s">
         <v>71</v>
@@ -1260,14 +1260,14 @@
         <v>202503</v>
       </c>
       <c r="W6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X6" s="3">
         <v>19</v>
       </c>
       <c r="Y6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
+        <f>W6/X6</f>
+        <v>0.63157894736842102</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>33</v>
@@ -1290,40 +1290,40 @@
         <v>113</v>
       </c>
       <c r="B7" s="2">
-        <v>2025103667</v>
+        <v>2023200938</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20251</v>
+        <f>MID(B7,1,5)</f>
+        <v>20232</v>
       </c>
       <c r="K7" s="2">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>49</v>
@@ -1338,7 +1338,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s">
         <v>71</v>
@@ -1350,14 +1350,14 @@
         <v>202503</v>
       </c>
       <c r="W7" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X7" s="3">
         <v>19</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.68421052631578949</v>
+        <f>W7/X7</f>
+        <v>0.52631578947368418</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>33</v>
@@ -1380,40 +1380,40 @@
         <v>113</v>
       </c>
       <c r="B8" s="2">
-        <v>2024101142</v>
+        <v>2024102603</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B8,1,5)</f>
         <v>20241</v>
       </c>
       <c r="K8" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>49</v>
@@ -1428,10 +1428,10 @@
         <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>70</v>
@@ -1440,14 +1440,14 @@
         <v>202503</v>
       </c>
       <c r="W8" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X8" s="3">
         <v>19</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63157894736842102</v>
+        <f>W8/X8</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>33</v>
@@ -1470,36 +1470,36 @@
         <v>113</v>
       </c>
       <c r="B9" s="2">
-        <v>2023202283</v>
+        <v>2024103037</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20232</v>
+        <f>MID(B9,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K9" s="2">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
@@ -1530,14 +1530,14 @@
         <v>202503</v>
       </c>
       <c r="W9" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X9" s="3">
         <v>19</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.57894736842105265</v>
+        <f>W9/X9</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>33</v>
@@ -1560,40 +1560,40 @@
         <v>113</v>
       </c>
       <c r="B10" s="2">
-        <v>2024100768</v>
+        <v>2024104703</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B10,1,5)</f>
         <v>20241</v>
       </c>
       <c r="K10" s="2">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>49</v>
@@ -1626,7 +1626,7 @@
         <v>19</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="1"/>
+        <f>W10/X10</f>
         <v>0.63157894736842102</v>
       </c>
       <c r="Z10" s="2" t="s">
@@ -1650,36 +1650,36 @@
         <v>113</v>
       </c>
       <c r="B11" s="2">
-        <v>2024202671</v>
+        <v>2024106697</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20242</v>
+        <f>MID(B11,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K11" s="2">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
@@ -1710,20 +1710,20 @@
         <v>202503</v>
       </c>
       <c r="W11" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X11" s="3">
         <v>19</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
+        <f>W11/X11</f>
+        <v>0.36842105263157893</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>33</v>
@@ -1740,40 +1740,40 @@
         <v>113</v>
       </c>
       <c r="B12" s="2">
-        <v>2025100781</v>
+        <v>2024101142</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20251</v>
+        <f>MID(B12,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K12" s="2">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>49</v>
@@ -1788,10 +1788,10 @@
         <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>70</v>
@@ -1800,14 +1800,14 @@
         <v>202503</v>
       </c>
       <c r="W12" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" s="3">
         <v>19</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.68421052631578949</v>
+        <f>W12/X12</f>
+        <v>0.63157894736842102</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>33</v>
@@ -1830,40 +1830,40 @@
         <v>113</v>
       </c>
       <c r="B13" s="2">
-        <v>2023105124</v>
+        <v>2024100768</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20231</v>
+        <f>MID(B13,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K13" s="2">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>49</v>
@@ -1878,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s">
         <v>71</v>
@@ -1896,7 +1896,7 @@
         <v>19</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="1"/>
+        <f>W13/X13</f>
         <v>0.63157894736842102</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -1920,30 +1920,30 @@
         <v>113</v>
       </c>
       <c r="B14" s="2">
-        <v>2023200597</v>
+        <v>2024102722</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20232</v>
+        <f>MID(B14,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K14" s="2">
         <v>2118</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>49</v>
@@ -1968,10 +1968,10 @@
         <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>70</v>
@@ -1986,7 +1986,7 @@
         <v>19</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="1"/>
+        <f>W14/X14</f>
         <v>0.63157894736842102</v>
       </c>
       <c r="Z14" s="2" t="s">
@@ -2010,10 +2010,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="2">
-        <v>2023200706</v>
+        <v>2024102696</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
@@ -2022,24 +2022,24 @@
         <v>54</v>
       </c>
       <c r="F15" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20232</v>
+        <f>MID(B15,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K15" s="2">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2">
@@ -2058,7 +2058,7 @@
         <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="T15" t="s">
         <v>71</v>
@@ -2070,14 +2070,14 @@
         <v>202503</v>
       </c>
       <c r="W15" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X15" s="3">
         <v>19</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63157894736842102</v>
+        <f>W15/X15</f>
+        <v>0.68421052631578949</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>33</v>
@@ -2100,46 +2100,46 @@
         <v>113</v>
       </c>
       <c r="B16" s="2">
-        <v>2024102722</v>
+        <v>2024103219</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B16,1,5)</f>
         <v>20241</v>
       </c>
       <c r="K16" s="2">
-        <v>2118</v>
+        <v>59</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>31</v>
@@ -2148,10 +2148,10 @@
         <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>70</v>
@@ -2160,14 +2160,14 @@
         <v>202503</v>
       </c>
       <c r="W16" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X16" s="3">
         <v>19</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63157894736842102</v>
+        <f>W16/X16</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>33</v>
@@ -2190,46 +2190,46 @@
         <v>113</v>
       </c>
       <c r="B17" s="2">
-        <v>2023102978</v>
+        <v>2024104485</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20231</v>
+        <f>MID(B17,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K17" s="2">
-        <v>2119</v>
+        <v>59</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>31</v>
@@ -2238,7 +2238,7 @@
         <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s">
         <v>71</v>
@@ -2250,14 +2250,14 @@
         <v>202503</v>
       </c>
       <c r="W17" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="X17" s="3">
         <v>19</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.36842105263157893</v>
+        <f>W17/X17</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>33</v>
@@ -2280,46 +2280,46 @@
         <v>113</v>
       </c>
       <c r="B18" s="2">
-        <v>2023200938</v>
+        <v>2024104951</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20232</v>
+        <f>MID(B18,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K18" s="2">
-        <v>2119</v>
+        <v>59</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>31</v>
@@ -2328,7 +2328,7 @@
         <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s">
         <v>71</v>
@@ -2340,14 +2340,14 @@
         <v>202503</v>
       </c>
       <c r="W18" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X18" s="3">
         <v>19</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
+        <f>W18/X18</f>
+        <v>0.68421052631578949</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>33</v>
@@ -2370,46 +2370,46 @@
         <v>113</v>
       </c>
       <c r="B19" s="2">
-        <v>2025104180</v>
+        <v>2024105437</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20251</v>
+        <f>MID(B19,1,5)</f>
+        <v>20241</v>
       </c>
       <c r="K19" s="2">
-        <v>2119</v>
+        <v>59</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>31</v>
@@ -2418,10 +2418,10 @@
         <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>70</v>
@@ -2430,14 +2430,14 @@
         <v>202503</v>
       </c>
       <c r="W19" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X19" s="3">
         <v>19</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.57894736842105265</v>
+        <f>W19/X19</f>
+        <v>0.47368421052631576</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>33</v>
@@ -2460,40 +2460,40 @@
         <v>113</v>
       </c>
       <c r="B20" s="2">
-        <v>2024102696</v>
+        <v>2024202671</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B20,1,5)</f>
+        <v>20242</v>
       </c>
       <c r="K20" s="2">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>49</v>
@@ -2508,10 +2508,10 @@
         <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>70</v>
@@ -2520,14 +2520,14 @@
         <v>202503</v>
       </c>
       <c r="W20" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X20" s="3">
         <v>19</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.68421052631578949</v>
+        <f>W20/X20</f>
+        <v>0.52631578947368418</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>33</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B21,1,5)</f>
         <v>20242</v>
       </c>
       <c r="K21" s="2">
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" si="1"/>
+        <f>W21/X21</f>
         <v>0.68421052631578949</v>
       </c>
       <c r="Z21" s="2" t="s">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B22,1,5)</f>
         <v>20242</v>
       </c>
       <c r="K22" s="2">
@@ -2706,7 +2706,7 @@
         <v>19</v>
       </c>
       <c r="Y22" s="4">
-        <f t="shared" si="1"/>
+        <f>W22/X22</f>
         <v>0.63157894736842102</v>
       </c>
       <c r="Z22" s="2" t="s">
@@ -2730,30 +2730,30 @@
         <v>113</v>
       </c>
       <c r="B23" s="2">
-        <v>2024103219</v>
+        <v>2024201120</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F23" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B23,1,5)</f>
+        <v>20242</v>
       </c>
       <c r="K23" s="2">
         <v>59</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>44</v>
@@ -2790,14 +2790,14 @@
         <v>202503</v>
       </c>
       <c r="W23" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X23" s="3">
         <v>19</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73684210526315785</v>
+        <f>W23/X23</f>
+        <v>0.47368421052631576</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>33</v>
@@ -2820,46 +2820,46 @@
         <v>113</v>
       </c>
       <c r="B24" s="2">
-        <v>2024104485</v>
+        <v>2025100442</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B24,1,5)</f>
+        <v>20251</v>
       </c>
       <c r="K24" s="2">
-        <v>59</v>
+        <v>2115</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
         <v>5</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>31</v>
@@ -2868,7 +2868,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
         <v>71</v>
@@ -2880,14 +2880,14 @@
         <v>202503</v>
       </c>
       <c r="W24" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X24" s="3">
         <v>19</v>
       </c>
       <c r="Y24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73684210526315785</v>
+        <f>W24/X24</f>
+        <v>0.52631578947368418</v>
       </c>
       <c r="Z24" s="2" t="s">
         <v>33</v>
@@ -2910,46 +2910,46 @@
         <v>113</v>
       </c>
       <c r="B25" s="2">
-        <v>2024104951</v>
+        <v>2025103667</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B25,1,5)</f>
+        <v>20251</v>
       </c>
       <c r="K25" s="2">
-        <v>59</v>
+        <v>2115</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>31</v>
@@ -2958,7 +2958,7 @@
         <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="T25" t="s">
         <v>71</v>
@@ -2976,7 +2976,7 @@
         <v>19</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="1"/>
+        <f>W25/X25</f>
         <v>0.68421052631578949</v>
       </c>
       <c r="Z25" s="2" t="s">
@@ -3000,46 +3000,46 @@
         <v>113</v>
       </c>
       <c r="B26" s="2">
-        <v>2024105437</v>
+        <v>2025100781</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20241</v>
+        <f>MID(B26,1,5)</f>
+        <v>20251</v>
       </c>
       <c r="K26" s="2">
-        <v>59</v>
+        <v>2117</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>31</v>
@@ -3048,7 +3048,7 @@
         <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s">
         <v>71</v>
@@ -3060,14 +3060,14 @@
         <v>202503</v>
       </c>
       <c r="W26" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X26" s="3">
         <v>19</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.47368421052631576</v>
+        <f>W26/X26</f>
+        <v>0.68421052631578949</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>33</v>
@@ -3090,46 +3090,46 @@
         <v>113</v>
       </c>
       <c r="B27" s="2">
-        <v>2024201120</v>
+        <v>2025104180</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F27" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20242</v>
+        <f>MID(B27,1,5)</f>
+        <v>20251</v>
       </c>
       <c r="K27" s="2">
-        <v>59</v>
+        <v>2119</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2">
         <v>4</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>31</v>
@@ -3138,10 +3138,10 @@
         <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>70</v>
@@ -3150,14 +3150,14 @@
         <v>202503</v>
       </c>
       <c r="W27" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X27" s="3">
         <v>19</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.47368421052631576</v>
+        <f>W27/X27</f>
+        <v>0.57894736842105265</v>
       </c>
       <c r="Z27" s="2" t="s">
         <v>33</v>
@@ -3176,7 +3176,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AD27" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD27">
+      <sortCondition ref="J1:J27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>